--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_136.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_136.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8089</v>
+        <v>2.7486</v>
       </c>
       <c r="J3" t="n">
-        <v>26.22</v>
+        <v>27.81</v>
       </c>
       <c r="K3" t="n">
-        <v>1322.38</v>
+        <v>1372.16</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.19</v>
+        <v>3.19</v>
       </c>
       <c r="R3" t="n">
-        <v>1365.6822</v>
+        <v>1409.4865</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5407</v>
+        <v>2.5106</v>
       </c>
       <c r="J4" t="n">
-        <v>1.49</v>
+        <v>27.58</v>
       </c>
       <c r="K4" t="n">
-        <v>67.84999999999999</v>
+        <v>1243.29</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>2.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1216.686</v>
+        <v>1254.6364</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>13.3438</v>
+        <v>12.5939</v>
       </c>
       <c r="J5" t="n">
-        <v>27.68</v>
+        <v>27.27</v>
       </c>
       <c r="K5" t="n">
-        <v>6630.23</v>
+        <v>6165.76</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>9.1</v>
+        <v>12.05</v>
       </c>
       <c r="R5" t="n">
-        <v>5668.1579</v>
+        <v>5331.2201</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>16.0077</v>
+        <v>15.0846</v>
       </c>
       <c r="J6" t="n">
-        <v>29.34</v>
+        <v>27.95</v>
       </c>
       <c r="K6" t="n">
-        <v>8431.639999999999</v>
+        <v>7568.38</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>7.64</v>
+        <v>10.05</v>
       </c>
       <c r="R6" t="n">
-        <v>4761.1723</v>
+        <v>4447.1435</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>6.7521</v>
+        <v>6.4871</v>
       </c>
       <c r="J7" t="n">
-        <v>33.53</v>
+        <v>33.21</v>
       </c>
       <c r="K7" t="n">
-        <v>4064.24</v>
+        <v>3867.4</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>5.25</v>
+        <v>6.98</v>
       </c>
       <c r="R7" t="n">
-        <v>3269.1649</v>
+        <v>3089.781</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>84.69589999999999</v>
+        <v>79.91889999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7068.53</v>
+        <v>6312.56</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>11.04</v>
+        <v>13.88</v>
       </c>
       <c r="R8" t="n">
-        <v>6879.328</v>
+        <v>6141.0456</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>18.6664</v>
+        <v>17.815</v>
       </c>
       <c r="J9" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>658.54</v>
+        <v>577.01</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>515.8853</v>
+        <v>446.8895</v>
       </c>
     </row>
   </sheetData>
